--- a/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E08821-91B0-4487-82D6-01830409D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AA917B-0290-4827-BEF7-C832ADF7D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B4618BE-BE71-4549-9BE8-8A4491F0E36F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15FBA7F5-27C5-49A8-9A1A-FA4A23CA2AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3460D561-7ACB-4851-AB80-63D730DAFD77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D89E0-3E56-4D11-8F24-8163350FFB73}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AA917B-0290-4827-BEF7-C832ADF7D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9582EEC8-ECBE-4DE8-8021-C644862C6EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15FBA7F5-27C5-49A8-9A1A-FA4A23CA2AAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1271DA5E-7070-469D-BDAA-781AA7C089C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="247">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -92,679 +92,688 @@
     <t>1,85%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>24,95%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>77,6%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1179,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D89E0-3E56-4D11-8F24-8163350FFB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8700CF-5DEE-41B9-9415-694DF33AA907}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1626,13 +1635,13 @@
         <v>2477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1641,13 +1650,13 @@
         <v>2477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1671,13 @@
         <v>4760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1680,10 +1689,10 @@
         <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1692,13 +1701,13 @@
         <v>7968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1722,13 @@
         <v>27747</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -1728,13 +1737,13 @@
         <v>18230</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -1743,13 +1752,13 @@
         <v>45977</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1773,13 @@
         <v>118526</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1779,13 +1788,13 @@
         <v>113657</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -1794,13 +1803,13 @@
         <v>232183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1824,13 @@
         <v>394233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>743</v>
@@ -1830,13 +1839,13 @@
         <v>451109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1180</v>
@@ -1845,13 +1854,13 @@
         <v>845342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,7 +1916,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1919,13 +1928,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1934,13 +1943,13 @@
         <v>2184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1949,13 +1958,13 @@
         <v>7573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1979,13 @@
         <v>8663</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1985,13 +1994,13 @@
         <v>9418</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2000,13 +2009,13 @@
         <v>18081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2030,13 @@
         <v>56126</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -2036,13 +2045,13 @@
         <v>32265</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2051,13 +2060,13 @@
         <v>88391</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2081,13 @@
         <v>239582</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>367</v>
@@ -2087,13 +2096,13 @@
         <v>238031</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>600</v>
@@ -2102,13 +2111,13 @@
         <v>477614</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2132,13 @@
         <v>719865</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>1076</v>
@@ -2138,13 +2147,13 @@
         <v>772904</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1729</v>
@@ -2153,13 +2162,13 @@
         <v>1492770</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,7 +2224,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2227,13 +2236,13 @@
         <v>3318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2242,13 +2251,13 @@
         <v>2766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2257,13 +2266,13 @@
         <v>6085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2287,13 @@
         <v>5573</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2296,10 +2305,10 @@
         <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2308,13 +2317,13 @@
         <v>10307</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2338,13 @@
         <v>43844</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -2344,13 +2353,13 @@
         <v>29466</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -2359,13 +2368,13 @@
         <v>73310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2389,13 @@
         <v>216960</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -2395,13 +2404,13 @@
         <v>167174</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>426</v>
@@ -2410,13 +2419,13 @@
         <v>384134</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2440,13 @@
         <v>455974</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>760</v>
@@ -2446,13 +2455,13 @@
         <v>666715</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -2461,13 +2470,13 @@
         <v>1122689</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2532,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2535,13 +2544,13 @@
         <v>1590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2550,13 +2559,13 @@
         <v>4366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -2565,13 +2574,13 @@
         <v>5956</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2595,13 @@
         <v>14863</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2601,13 +2610,13 @@
         <v>5778</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -2616,13 +2625,13 @@
         <v>20642</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2646,13 @@
         <v>53997</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -2652,13 +2661,13 @@
         <v>71188</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -2667,13 +2676,13 @@
         <v>125184</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,10 +2700,10 @@
         <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>300</v>
@@ -2703,13 +2712,13 @@
         <v>219201</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>482</v>
@@ -2718,13 +2727,13 @@
         <v>395819</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2852,13 @@
         <v>10298</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -2858,13 +2867,13 @@
         <v>11793</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -2873,13 +2882,13 @@
         <v>22091</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2903,13 @@
         <v>35711</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -2909,13 +2918,13 @@
         <v>23138</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M35" s="7">
         <v>73</v>
@@ -2924,13 +2933,13 @@
         <v>58849</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2954,13 @@
         <v>182683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>203</v>
@@ -2960,13 +2969,13 @@
         <v>154176</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>378</v>
@@ -2975,13 +2984,13 @@
         <v>336859</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3005,13 @@
         <v>776607</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
         <v>1163</v>
@@ -3011,13 +3020,13 @@
         <v>761803</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>1933</v>
@@ -3026,13 +3035,13 @@
         <v>1538410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3056,13 @@
         <v>2352921</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>3916</v>
@@ -3062,28 +3071,28 @@
         <v>2830887</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>6272</v>
       </c>
       <c r="N38" s="7">
-        <v>5183808</v>
+        <v>5183809</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3134,7 @@
         <v>8679</v>
       </c>
       <c r="N39" s="7">
-        <v>7140017</v>
+        <v>7140018</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>52</v>
@@ -3139,7 +3148,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9582EEC8-ECBE-4DE8-8021-C644862C6EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26587852-7064-46A7-AFA5-76838D67ADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1271DA5E-7070-469D-BDAA-781AA7C089C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822CCA51-F47D-4295-B3D8-A8DB9435321D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="244">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -92,616 +92,610 @@
     <t>1,85%</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>6,33%</t>
@@ -710,70 +704,67 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>24,95%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>77,6%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8700CF-5DEE-41B9-9415-694DF33AA907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEFADBC-5D39-4613-9AAC-FF68A31AFD83}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1617,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1635,13 +1626,13 @@
         <v>2477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1650,13 +1641,13 @@
         <v>2477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1662,13 @@
         <v>4760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1689,10 +1680,10 @@
         <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1701,13 +1692,13 @@
         <v>7968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1713,13 @@
         <v>27747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -1737,13 +1728,13 @@
         <v>18230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -1752,13 +1743,13 @@
         <v>45977</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1764,13 @@
         <v>118526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -1788,13 +1779,13 @@
         <v>113657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -1803,13 +1794,13 @@
         <v>232183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1815,13 @@
         <v>394233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>743</v>
@@ -1839,13 +1830,13 @@
         <v>451109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>1180</v>
@@ -1854,13 +1845,13 @@
         <v>845342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,7 +1907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1928,13 +1919,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1943,13 +1934,13 @@
         <v>2184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1958,13 +1949,13 @@
         <v>7573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1970,13 @@
         <v>8663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1994,13 +1985,13 @@
         <v>9418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2009,13 +2000,13 @@
         <v>18081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2021,13 @@
         <v>56126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -2045,13 +2036,13 @@
         <v>32265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -2060,13 +2051,13 @@
         <v>88391</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2072,13 @@
         <v>239582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>367</v>
@@ -2096,13 +2087,13 @@
         <v>238031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>600</v>
@@ -2111,13 +2102,13 @@
         <v>477614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2123,13 @@
         <v>719865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>1076</v>
@@ -2147,13 +2138,13 @@
         <v>772904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1729</v>
@@ -2162,13 +2153,13 @@
         <v>1492770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2215,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2236,13 +2227,13 @@
         <v>3318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2251,13 +2242,13 @@
         <v>2766</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2266,13 +2257,13 @@
         <v>6085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2278,13 @@
         <v>5573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2305,10 +2296,10 @@
         <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2317,13 +2308,13 @@
         <v>10307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2329,13 @@
         <v>43844</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -2353,13 +2344,13 @@
         <v>29466</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -2368,13 +2359,13 @@
         <v>73310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2380,13 @@
         <v>216960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -2404,13 +2395,13 @@
         <v>167174</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>426</v>
@@ -2419,13 +2410,13 @@
         <v>384134</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2431,13 @@
         <v>455974</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>760</v>
@@ -2455,13 +2446,13 @@
         <v>666715</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>1193</v>
@@ -2470,13 +2461,13 @@
         <v>1122689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2523,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2535,13 @@
         <v>1590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2559,13 +2550,13 @@
         <v>4366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -2574,13 +2565,13 @@
         <v>5956</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2586,13 @@
         <v>14863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2610,13 +2601,13 @@
         <v>5778</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -2625,13 +2616,13 @@
         <v>20642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2637,13 @@
         <v>53997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -2661,13 +2652,13 @@
         <v>71188</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -2676,13 +2667,13 @@
         <v>125184</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2691,10 @@
         <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>300</v>
@@ -2712,13 +2703,13 @@
         <v>219201</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>482</v>
@@ -2727,13 +2718,13 @@
         <v>395819</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2843,13 @@
         <v>10298</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -2867,13 +2858,13 @@
         <v>11793</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -2882,13 +2873,13 @@
         <v>22091</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2894,13 @@
         <v>35711</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -2918,13 +2909,13 @@
         <v>23138</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M35" s="7">
         <v>73</v>
@@ -2933,13 +2924,13 @@
         <v>58849</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2945,13 @@
         <v>182683</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>203</v>
@@ -2969,13 +2960,13 @@
         <v>154176</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>378</v>
@@ -2984,13 +2975,13 @@
         <v>336859</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2996,13 @@
         <v>776607</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>1163</v>
@@ -3020,13 +3011,13 @@
         <v>761803</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>1933</v>
@@ -3035,13 +3026,13 @@
         <v>1538410</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3047,13 @@
         <v>2352921</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>3916</v>
@@ -3071,28 +3062,28 @@
         <v>2830887</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>6272</v>
       </c>
       <c r="N38" s="7">
-        <v>5183809</v>
+        <v>5183808</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3125,7 @@
         <v>8679</v>
       </c>
       <c r="N39" s="7">
-        <v>7140018</v>
+        <v>7140017</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>52</v>
@@ -3148,7 +3139,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26587852-7064-46A7-AFA5-76838D67ADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0987EA25-8AD2-4105-8EB7-21AE325ABBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822CCA51-F47D-4295-B3D8-A8DB9435321D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C8D4F47-861B-443B-A627-4B59A2CAAABC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -77,694 +77,601 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1179,8 +1086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEFADBC-5D39-4613-9AAC-FF68A31AFD83}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD809B7-2492-49B1-943A-9DD4031E29ED}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1312,238 +1219,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>1851</v>
+        <v>6171</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>1851</v>
+        <v>9255</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>970</v>
+        <v>25547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>3027</v>
+        <v>19858</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>3997</v>
+        <v>45405</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="D7" s="7">
-        <v>24920</v>
+        <v>133167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="I7" s="7">
-        <v>23740</v>
+        <v>125290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="N7" s="7">
-        <v>48660</v>
+        <v>258457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="D8" s="7">
-        <v>72052</v>
+        <v>464161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>179</v>
+        <v>922</v>
       </c>
       <c r="I8" s="7">
-        <v>101965</v>
+        <v>519209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>260</v>
+        <v>1440</v>
       </c>
       <c r="N8" s="7">
-        <v>174017</v>
+        <v>983368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,306 +1459,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>723</v>
       </c>
       <c r="D9" s="7">
-        <v>99793</v>
+        <v>629045</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>239</v>
+        <v>1228</v>
       </c>
       <c r="I9" s="7">
-        <v>128732</v>
+        <v>669857</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>1951</v>
       </c>
       <c r="N9" s="7">
-        <v>228525</v>
+        <v>1298901</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2477</v>
+        <v>2011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2477</v>
+        <v>7495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>4760</v>
+        <v>7783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>3208</v>
+        <v>8299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>7968</v>
+        <v>16082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>27747</v>
+        <v>52125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>18230</v>
+        <v>29725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="N12" s="7">
-        <v>45977</v>
+        <v>81851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>118526</v>
+        <v>226692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="I13" s="7">
-        <v>113657</v>
+        <v>213937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>342</v>
+        <v>600</v>
       </c>
       <c r="N13" s="7">
-        <v>232183</v>
+        <v>440629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>437</v>
+        <v>653</v>
       </c>
       <c r="D14" s="7">
-        <v>394233</v>
+        <v>891743</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>743</v>
+        <v>1076</v>
       </c>
       <c r="I14" s="7">
-        <v>451109</v>
+        <v>699819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>1180</v>
+        <v>1729</v>
       </c>
       <c r="N14" s="7">
-        <v>845342</v>
+        <v>1591562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,306 +1767,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>607</v>
+        <v>956</v>
       </c>
       <c r="D15" s="7">
-        <v>545266</v>
+        <v>1183828</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>989</v>
+        <v>1509</v>
       </c>
       <c r="I15" s="7">
-        <v>588681</v>
+        <v>953790</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>1596</v>
+        <v>2465</v>
       </c>
       <c r="N15" s="7">
-        <v>1133947</v>
+        <v>2137619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3324</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>5389</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
       <c r="I16" s="7">
-        <v>2184</v>
+        <v>2503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>7573</v>
+        <v>5827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>8663</v>
+        <v>5410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>9418</v>
+        <v>4351</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>18081</v>
+        <v>9761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>56126</v>
+        <v>42195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>32265</v>
+        <v>27682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>88391</v>
+        <v>69877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7">
-        <v>239582</v>
+        <v>207685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="I19" s="7">
-        <v>238031</v>
+        <v>150961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="N19" s="7">
-        <v>477614</v>
+        <v>358646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>653</v>
+        <v>433</v>
       </c>
       <c r="D20" s="7">
-        <v>719865</v>
+        <v>443029</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>1076</v>
+        <v>760</v>
       </c>
       <c r="I20" s="7">
-        <v>772904</v>
+        <v>744694</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>1729</v>
+        <v>1193</v>
       </c>
       <c r="N20" s="7">
-        <v>1492770</v>
+        <v>1187722</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,306 +2075,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>956</v>
+        <v>671</v>
       </c>
       <c r="D21" s="7">
-        <v>1029626</v>
+        <v>701643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>1509</v>
+        <v>1041</v>
       </c>
       <c r="I21" s="7">
-        <v>1054802</v>
+        <v>930191</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>2465</v>
+        <v>1712</v>
       </c>
       <c r="N21" s="7">
-        <v>2084429</v>
+        <v>1631834</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>3318</v>
+        <v>1594</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>2766</v>
+        <v>4077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>6085</v>
+        <v>5671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>5573</v>
+        <v>14124</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>4734</v>
+        <v>5318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7">
-        <v>10307</v>
+        <v>19442</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>43844</v>
+        <v>51844</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I24" s="7">
-        <v>29466</v>
+        <v>62185</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="N24" s="7">
-        <v>73310</v>
+        <v>114030</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D25" s="7">
-        <v>216960</v>
+        <v>161807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="I25" s="7">
-        <v>167174</v>
+        <v>193752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="N25" s="7">
-        <v>384134</v>
+        <v>355559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>433</v>
+        <v>752</v>
       </c>
       <c r="D26" s="7">
-        <v>455974</v>
+        <v>690111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
-        <v>760</v>
+        <v>1158</v>
       </c>
       <c r="I26" s="7">
-        <v>666715</v>
+        <v>818730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>1193</v>
+        <v>1910</v>
       </c>
       <c r="N26" s="7">
-        <v>1122689</v>
+        <v>1508841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,183 +2383,183 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>671</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="7">
-        <v>725669</v>
+        <v>919480</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>1041</v>
+        <v>1551</v>
       </c>
       <c r="I27" s="7">
-        <v>870856</v>
+        <v>1084062</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>1712</v>
+        <v>2551</v>
       </c>
       <c r="N27" s="7">
-        <v>1596525</v>
+        <v>2003542</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>1590</v>
+        <v>10402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I28" s="7">
-        <v>4366</v>
+        <v>11008</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N28" s="7">
-        <v>5956</v>
+        <v>21410</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>14863</v>
+        <v>33489</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I29" s="7">
-        <v>5778</v>
+        <v>21051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>20642</v>
+        <v>54540</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="D30" s="7">
-        <v>53997</v>
+        <v>171711</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="I30" s="7">
-        <v>71188</v>
+        <v>139451</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>190</v>
@@ -2661,34 +2568,34 @@
         <v>191</v>
       </c>
       <c r="M30" s="7">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="N30" s="7">
-        <v>125184</v>
+        <v>311163</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>182</v>
+        <v>770</v>
       </c>
       <c r="D31" s="7">
-        <v>176619</v>
+        <v>729351</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>195</v>
@@ -2697,10 +2604,10 @@
         <v>196</v>
       </c>
       <c r="H31" s="7">
-        <v>300</v>
+        <v>1163</v>
       </c>
       <c r="I31" s="7">
-        <v>219201</v>
+        <v>683939</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>197</v>
@@ -2712,10 +2619,10 @@
         <v>199</v>
       </c>
       <c r="M31" s="7">
-        <v>482</v>
+        <v>1933</v>
       </c>
       <c r="N31" s="7">
-        <v>395819</v>
+        <v>1413290</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>200</v>
@@ -2724,58 +2631,58 @@
         <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>752</v>
+        <v>2356</v>
       </c>
       <c r="D32" s="7">
-        <v>710797</v>
+        <v>2489042</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
-        <v>1158</v>
+        <v>3916</v>
       </c>
       <c r="I32" s="7">
-        <v>838193</v>
+        <v>2782451</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
-        <v>1910</v>
+        <v>6272</v>
       </c>
       <c r="N32" s="7">
-        <v>1548989</v>
+        <v>5271493</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,370 +2691,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1000</v>
+        <v>3350</v>
       </c>
       <c r="D33" s="7">
-        <v>957866</v>
+        <v>3433995</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>1551</v>
+        <v>5329</v>
       </c>
       <c r="I33" s="7">
-        <v>1138725</v>
+        <v>3637900</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>2551</v>
+        <v>8679</v>
       </c>
       <c r="N33" s="7">
-        <v>2096591</v>
+        <v>7071896</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7">
-        <v>10298</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="7">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11793</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" s="7">
-        <v>23</v>
-      </c>
-      <c r="N34" s="7">
-        <v>22091</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="A34" t="s">
         <v>212</v>
       </c>
-      <c r="Q34" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>40</v>
-      </c>
-      <c r="D35" s="7">
-        <v>35711</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="7">
-        <v>33</v>
-      </c>
-      <c r="I35" s="7">
-        <v>23138</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="7">
-        <v>73</v>
-      </c>
-      <c r="N35" s="7">
-        <v>58849</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="7">
-        <v>175</v>
-      </c>
-      <c r="D36" s="7">
-        <v>182683</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="7">
-        <v>203</v>
-      </c>
-      <c r="I36" s="7">
-        <v>154176</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M36" s="7">
-        <v>378</v>
-      </c>
-      <c r="N36" s="7">
-        <v>336859</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="7">
-        <v>770</v>
-      </c>
-      <c r="D37" s="7">
-        <v>776607</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1163</v>
-      </c>
-      <c r="I37" s="7">
-        <v>761803</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1933</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1538410</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2356</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2352921</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3916</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2830887</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6272</v>
-      </c>
-      <c r="N38" s="7">
-        <v>5183808</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3350</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3358220</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5329</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3781797</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8679</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7140017</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>243</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
